--- a/TODOS_DISTRITOS_GROUPED.xlsx
+++ b/TODOS_DISTRITOS_GROUPED.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\recal\Desktop\MINISTERIO DE HACIENDA\PYTYVO - Datos de Consumo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\recal\Desktop\MINISTERIO DE HACIENDA\PYTYVO - Datos de Consumo\Dashboard_Pytyvo2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A9ACD4-8AF0-442D-851A-0A59530077C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A997624B-40B9-41FA-AC6F-1499B243F920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E3AF8DBE-3745-438B-A2C8-22C167F5097B}"/>
   </bookViews>
@@ -1579,8 +1579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF108CF5-E8B0-4989-9F26-AE8D0F3C3977}">
   <dimension ref="A1:F733"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A713" workbookViewId="0">
+      <selection activeCell="F725" sqref="F724:F725"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14314,7 +14314,7 @@
         <v>282079846</v>
       </c>
       <c r="E707" s="2">
-        <f t="shared" ref="E707:E730" si="11">D707/7005.79</f>
+        <f t="shared" ref="E707:E733" si="11">D707/7005.79</f>
         <v>40263.816928569082</v>
       </c>
     </row>
@@ -14742,6 +14742,13 @@
       <c r="C731" s="1">
         <v>1304</v>
       </c>
+      <c r="D731" s="2">
+        <v>0</v>
+      </c>
+      <c r="E731" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A732" s="1" t="s">
@@ -14753,6 +14760,13 @@
       <c r="C732" s="1">
         <v>1508</v>
       </c>
+      <c r="D732" s="2">
+        <v>0</v>
+      </c>
+      <c r="E732" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A733" s="1" t="s">
@@ -14763,6 +14777,13 @@
       </c>
       <c r="C733" s="1">
         <v>1509</v>
+      </c>
+      <c r="D733" s="2">
+        <v>0</v>
+      </c>
+      <c r="E733" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
